--- a/app/scripts/PG Automation.xlsx
+++ b/app/scripts/PG Automation.xlsx
@@ -55,13 +55,13 @@
     <t>PgDBName</t>
   </si>
   <si>
-    <t>pgmig-jumpbox-dev-02.centralindia.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>gsl\sultan.m</t>
-  </si>
-  <si>
-    <t>Gsl#4321</t>
+    <t>GSL-KOL-LT-86</t>
+  </si>
+  <si>
+    <t>sultan.m</t>
+  </si>
+  <si>
+    <t>Sltn#54321</t>
   </si>
   <si>
     <t>KTPL</t>
@@ -85,7 +85,7 @@
     <t>PG-PROD</t>
   </si>
   <si>
-    <t>Remote Host2</t>
+    <t>\</t>
   </si>
   <si>
     <t>Admin</t>
